--- a/assignment/assignment deliverables_nelson/Raw Data collection.xlsx
+++ b/assignment/assignment deliverables_nelson/Raw Data collection.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelsonma\GitHub\ntnu_iam_2022\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelsonma\EP8900\ntnu_iam_2022\assignment\assignment deliverables_nelson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8958E166-700B-42D1-A3FF-891F19D8197D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29356AE-BADF-4A23-BCB4-67B981CBA2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{856081ED-E8A0-44AE-966C-15F6F9189343}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{856081ED-E8A0-44AE-966C-15F6F9189343}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
     <sheet name="effect of biodiesel efficiency" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1493,6 +1493,51 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1537,51 +1582,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1687,7 +1687,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$72</c:f>
+              <c:f>'Raw Data'!$A$72</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1708,7 +1708,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$72</c:f>
+              <c:f>'Raw Data'!$C$72</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1729,7 +1729,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$73</c:f>
+              <c:f>'Raw Data'!$A$73</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1752,7 +1752,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$73</c:f>
+              <c:f>'Raw Data'!$C$73</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1773,7 +1773,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$74</c:f>
+              <c:f>'Raw Data'!$A$74</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1794,7 +1794,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$74</c:f>
+              <c:f>'Raw Data'!$C$74</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1815,7 +1815,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$75</c:f>
+              <c:f>'Raw Data'!$A$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1836,7 +1836,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$75</c:f>
+              <c:f>'Raw Data'!$C$75</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1857,7 +1857,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$76</c:f>
+              <c:f>'Raw Data'!$A$76</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1881,7 +1881,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$76</c:f>
+              <c:f>'Raw Data'!$C$76</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4111,8 +4111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE00D2C0-11A8-4633-8FB3-EF369705EEEB}">
   <dimension ref="A1:DX101"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7129,10 +7129,10 @@
         <v>119</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="138" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="138"/>
+      <c r="C43" s="134" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="134"/>
       <c r="E43" s="102" t="s">
         <v>131</v>
       </c>
@@ -7170,7 +7170,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A45" s="132" t="s">
+      <c r="A45" s="153" t="s">
         <v>116</v>
       </c>
       <c r="B45" s="38" t="s">
@@ -7202,7 +7202,7 @@
         <f t="shared" si="2"/>
         <v>3.388776082573699</v>
       </c>
-      <c r="L45" s="139" t="str">
+      <c r="L45" s="135" t="str">
         <f>+A45</f>
         <v>Industry</v>
       </c>
@@ -7214,12 +7214,12 @@
         <f>+D45/$B$34</f>
         <v>1.0534957648364849E-2</v>
       </c>
-      <c r="O45" s="126" t="s">
+      <c r="O45" s="147" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A46" s="133"/>
+      <c r="A46" s="154"/>
       <c r="B46" s="39" t="s">
         <v>121</v>
       </c>
@@ -7249,7 +7249,7 @@
         <f t="shared" si="3"/>
         <v>1.4076718165657671</v>
       </c>
-      <c r="L46" s="140"/>
+      <c r="L46" s="136"/>
       <c r="M46" s="35" t="str">
         <f t="shared" ref="M46:M51" si="4">+B46</f>
         <v>Thermal Industry</v>
@@ -7258,13 +7258,13 @@
         <f t="shared" ref="N46:N47" si="5">+D46/$B$34</f>
         <v>4.3761412996795876E-3</v>
       </c>
-      <c r="O46" s="127"/>
+      <c r="O46" s="148"/>
       <c r="P46" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="134"/>
+      <c r="A47" s="155"/>
       <c r="B47" s="40" t="s">
         <v>122</v>
       </c>
@@ -7294,7 +7294,7 @@
         <f t="shared" si="6"/>
         <v>0.66399220552802507</v>
       </c>
-      <c r="L47" s="141"/>
+      <c r="L47" s="137"/>
       <c r="M47" s="84" t="str">
         <f t="shared" si="4"/>
         <v>Feedstock Industry</v>
@@ -7303,10 +7303,10 @@
         <f t="shared" si="5"/>
         <v>2.0642053631261081E-3</v>
       </c>
-      <c r="O47" s="128"/>
+      <c r="O47" s="149"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A48" s="135" t="s">
+      <c r="A48" s="156" t="s">
         <v>117</v>
       </c>
       <c r="B48" s="39" t="s">
@@ -7338,7 +7338,7 @@
         <f t="shared" si="7"/>
         <v>0.33235726782084257</v>
       </c>
-      <c r="L48" s="142" t="s">
+      <c r="L48" s="138" t="s">
         <v>126</v>
       </c>
       <c r="M48" s="82" t="str">
@@ -7349,12 +7349,12 @@
         <f>+D48/$B$32</f>
         <v>9.2143628091094706E-3</v>
       </c>
-      <c r="O48" s="129" t="s">
+      <c r="O48" s="150" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A49" s="136"/>
+      <c r="A49" s="157"/>
       <c r="B49" s="39" t="s">
         <v>124</v>
       </c>
@@ -7384,7 +7384,7 @@
         <f t="shared" si="8"/>
         <v>0.60766662954039563</v>
       </c>
-      <c r="L49" s="143"/>
+      <c r="L49" s="139"/>
       <c r="M49" s="32" t="str">
         <f t="shared" si="4"/>
         <v>Thermal (non-biomass) RC</v>
@@ -7393,13 +7393,13 @@
         <f t="shared" ref="N49:N50" si="9">+D49/$B$32</f>
         <v>1.6847114035707531E-2</v>
       </c>
-      <c r="O49" s="130"/>
+      <c r="O49" s="151"/>
       <c r="P49" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="137"/>
+      <c r="A50" s="158"/>
       <c r="B50" s="39" t="s">
         <v>125</v>
       </c>
@@ -7429,7 +7429,7 @@
         <f t="shared" si="10"/>
         <v>11.65032210401715</v>
       </c>
-      <c r="L50" s="144"/>
+      <c r="L50" s="140"/>
       <c r="M50" s="83" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Primary Biomass </v>
@@ -7438,7 +7438,7 @@
         <f t="shared" si="9"/>
         <v>0.32299668189374114</v>
       </c>
-      <c r="O50" s="131"/>
+      <c r="O50" s="152"/>
     </row>
     <row r="51" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="45" t="s">
@@ -7522,10 +7522,10 @@
       </c>
     </row>
     <row r="56" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="123" t="s">
+      <c r="A56" s="144" t="s">
         <v>136</v>
       </c>
-      <c r="B56" s="124"/>
+      <c r="B56" s="145"/>
       <c r="C56" s="77">
         <v>2020</v>
       </c>
@@ -7573,7 +7573,7 @@
       <c r="H57" s="108">
         <v>180.94000000000003</v>
       </c>
-      <c r="I57" s="125"/>
+      <c r="I57" s="146"/>
       <c r="J57" s="106" t="s">
         <v>139</v>
       </c>
@@ -7603,7 +7603,7 @@
       <c r="H58" s="105">
         <v>4.0330000000000004</v>
       </c>
-      <c r="I58" s="125"/>
+      <c r="I58" s="146"/>
       <c r="J58" s="106" t="s">
         <v>140</v>
       </c>
@@ -7637,10 +7637,10 @@
       <c r="J59" s="106"/>
     </row>
     <row r="60" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="123" t="s">
+      <c r="A60" s="144" t="s">
         <v>137</v>
       </c>
-      <c r="B60" s="124"/>
+      <c r="B60" s="145"/>
       <c r="C60" s="77">
         <v>2020</v>
       </c>
@@ -7843,7 +7843,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C95" s="148">
+      <c r="C95" s="126">
         <v>2020</v>
       </c>
       <c r="D95" s="11">
@@ -7863,51 +7863,51 @@
       <c r="B96" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="C96" s="152">
+      <c r="C96" s="130">
         <v>72.932527397260287</v>
       </c>
-      <c r="D96" s="154">
+      <c r="D96" s="132">
         <v>90.785141712328766</v>
       </c>
-      <c r="E96" s="147">
+      <c r="E96" s="125">
         <v>112.25267260273972</v>
       </c>
-      <c r="F96" s="154">
+      <c r="F96" s="132">
         <v>133.11771739726029</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A97" s="156" t="s">
+      <c r="A97" s="141" t="s">
         <v>12</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C97" s="153">
+      <c r="C97" s="131">
         <v>10.589769093432746</v>
       </c>
-      <c r="D97" s="155">
+      <c r="D97" s="133">
         <v>13.095859871311925</v>
       </c>
-      <c r="E97" s="149">
+      <c r="E97" s="127">
         <v>16.059310243596464</v>
       </c>
-      <c r="F97" s="155">
+      <c r="F97" s="133">
         <v>19.371055184953551</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A98" s="157"/>
+      <c r="A98" s="142"/>
       <c r="B98" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C98" s="150">
+      <c r="C98" s="128">
         <v>8.9</v>
       </c>
       <c r="D98" s="16">
         <v>10.07</v>
       </c>
-      <c r="E98" s="151">
+      <c r="E98" s="129">
         <v>11.48</v>
       </c>
       <c r="F98" s="16">
@@ -7915,7 +7915,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" s="158"/>
+      <c r="A99" s="143"/>
       <c r="B99" s="36" t="s">
         <v>162</v>
       </c>
@@ -7939,6 +7939,10 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="O45:O47"/>
+    <mergeCell ref="O48:O50"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="L45:L47"/>
     <mergeCell ref="L48:L50"/>
@@ -7946,10 +7950,6 @@
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="I57:I58"/>
-    <mergeCell ref="O45:O47"/>
-    <mergeCell ref="O48:O50"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P3" r:id="rId1" xr:uid="{8ADD16A7-A47E-4390-90DB-5D99C200B95C}"/>
@@ -7971,21 +7971,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD8A7DE-B7F1-4D25-80A0-AFDDD9EE1687}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="146"/>
-      <c r="B1" s="145" t="s">
+      <c r="A1" s="124"/>
+      <c r="B1" s="123" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="145" t="s">
+      <c r="C1" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="145" t="s">
+      <c r="D1" s="123" t="s">
         <v>156</v>
       </c>
     </row>
